--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/indst/PPRiFUfERoIF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/pprifuferoif/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25E497FB-18CC-C940-8412-7D38C7E28401}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFDCBAA-726D-1D43-A797-6230BE88D957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="1300" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="1180" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="176">
   <si>
     <t>Industrial Sector Macroeconomic Indicators</t>
   </si>
@@ -562,9 +562,6 @@
   </si>
   <si>
     <t>Perc Fuel Use Reduction</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -677,7 +674,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -699,6 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1038,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1048,15 +1046,15 @@
     <col min="2" max="2" width="81.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="17">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1064,57 +1062,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
